--- a/Industry/201612-201908/HKD/MILLION/Analysis_74_8.1.1 - Rubber or Plastic Uppers_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_74_8.1.1 - Rubber or Plastic Uppers_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="768" yWindow="768"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -23055,6 +23056,344 @@
     <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
     <col bestFit="1" customWidth="1" max="6" min="5" width="9"/>
     <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
+    <col bestFit="1" customWidth="1" max="9" min="8" width="9"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3684.444</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3549.081</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-3.674</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2066.22</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3165.294</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-10.814</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2334.425</v>
+      </c>
+      <c r="I2" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3059.712</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2682.682</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-12.322</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1427.406</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2131.415</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-20.549</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1352.803</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-5.226</v>
+      </c>
+      <c r="J3" t="n">
+        <v>83.044</v>
+      </c>
+      <c r="K3" t="n">
+        <v>75.58799999999999</v>
+      </c>
+      <c r="L3" t="n">
+        <v>69.083</v>
+      </c>
+      <c r="M3" t="n">
+        <v>67.337</v>
+      </c>
+      <c r="N3" t="n">
+        <v>57.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" t="n">
+        <v>164.51</v>
+      </c>
+      <c r="C4" t="n">
+        <v>297.493</v>
+      </c>
+      <c r="D4" t="n">
+        <v>80.836</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.135</v>
+      </c>
+      <c r="F4" t="n">
+        <v>562.029</v>
+      </c>
+      <c r="G4" t="n">
+        <v>88.922</v>
+      </c>
+      <c r="H4" t="n">
+        <v>592.967</v>
+      </c>
+      <c r="I4" t="n">
+        <v>73.822</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.465</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8.382</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="M4" t="n">
+        <v>17.756</v>
+      </c>
+      <c r="N4" t="n">
+        <v>25.401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" t="n">
+        <v>323.916</v>
+      </c>
+      <c r="C5" t="n">
+        <v>444.962</v>
+      </c>
+      <c r="D5" t="n">
+        <v>37.37</v>
+      </c>
+      <c r="E5" t="n">
+        <v>197.178</v>
+      </c>
+      <c r="F5" t="n">
+        <v>327.9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-26.308</v>
+      </c>
+      <c r="H5" t="n">
+        <v>271.532</v>
+      </c>
+      <c r="I5" t="n">
+        <v>37.709</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8.791</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12.537</v>
+      </c>
+      <c r="L5" t="n">
+        <v>9.542999999999999</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10.359</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11.632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" t="n">
+        <v>135.277</v>
+      </c>
+      <c r="C6" t="n">
+        <v>123.828</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-8.462999999999999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100.429</v>
+      </c>
+      <c r="F6" t="n">
+        <v>143.876</v>
+      </c>
+      <c r="G6" t="n">
+        <v>16.191</v>
+      </c>
+      <c r="H6" t="n">
+        <v>116.282</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15.786</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.672</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.489</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.861</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4.545</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.981</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-88.72499999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-36.435</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1055.467</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="3" min="2" width="9"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
+    <col bestFit="1" customWidth="1" max="6" min="5" width="9"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
     <col bestFit="1" customWidth="1" max="8" min="8" width="9"/>
     <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
   </cols>
